--- a/biology/Botanique/Caryophyllaceae/Caryophyllaceae.xlsx
+++ b/biology/Botanique/Caryophyllaceae/Caryophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthaceae
-Les Caryophyllaceae (Caryophyllacées) sont une famille de plantes à fleurs de l'ordre des Caryophyllales. Cette famille comporte un peu plus de 80 genres et 2 000 espèces[1]. Ce sont essentiellement des plantes herbacées, caractérisées notamment par des tiges porteuses de feuilles simples et entières, généralement opposées, et attachées à la tige au niveau d'un nœud renflé, comme chez les œillets véritables ou les silènes.
+Les Caryophyllaceae (Caryophyllacées) sont une famille de plantes à fleurs de l'ordre des Caryophyllales. Cette famille comporte un peu plus de 80 genres et 2 000 espèces. Ce sont essentiellement des plantes herbacées, caractérisées notamment par des tiges porteuses de feuilles simples et entières, généralement opposées, et attachées à la tige au niveau d'un nœud renflé, comme chez les œillets véritables ou les silènes.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette famille donné par Antoine-Laurent de Jussieu en 1789[2] est basé sur le genre type Caryophyllus Mill. — nom de genre pourtant illégitimé, Caryophyllus Mill. étant synonyme de Dianthus L., —  et aussi d'après l'épithète spécifique caryophyllus[3].
-Le terme a été appliqué à l'espèce cultivée, ou Œillet commun, appelée par Philip Miller Caryophyllus Mill. (Miller abrégé en Mill., est partisan d'une nomenclature prélinnéenne) et Dianthus caryophyllus L. par Carl von Linné (abrégé en L.) dans son Species plantarum en 1753, à cause de l'odeur de ses fleurs qui rappellent le clou de girofle. Or ce nom est donné en 1687 par Paul Hermann[4], à tort car si karyophyllon désigne en grec le clou de girofle, fruit du giroflier (Myrtaceae), le terme évoque l'odeur des feuilles de noyer (du grec karyon, « noix » et phyllon, « feuille »)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette famille donné par Antoine-Laurent de Jussieu en 1789 est basé sur le genre type Caryophyllus Mill. — nom de genre pourtant illégitimé, Caryophyllus Mill. étant synonyme de Dianthus L., —  et aussi d'après l'épithète spécifique caryophyllus.
+Le terme a été appliqué à l'espèce cultivée, ou Œillet commun, appelée par Philip Miller Caryophyllus Mill. (Miller abrégé en Mill., est partisan d'une nomenclature prélinnéenne) et Dianthus caryophyllus L. par Carl von Linné (abrégé en L.) dans son Species plantarum en 1753, à cause de l'odeur de ses fleurs qui rappellent le clou de girofle. Or ce nom est donné en 1687 par Paul Hermann, à tort car si karyophyllon désigne en grec le clou de girofle, fruit du giroflier (Myrtaceae), le terme évoque l'odeur des feuilles de noyer (du grec karyon, « noix » et phyllon, « feuille »).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de famille Caryophyllaceae a fait l'objet d'une proposition de conservation (nom. cons.), ce qui permet son emploi préférentiel à Dianthaceae. Ceci explique pourquoi, autant la classification classique de Cronquist (1981)[6] que la classification phylogénétique APG III (2009)[7] emploient ce nom[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de famille Caryophyllaceae a fait l'objet d'une proposition de conservation (nom. cons.), ce qui permet son emploi préférentiel à Dianthaceae. Ceci explique pourquoi, autant la classification classique de Cronquist (1981) que la classification phylogénétique APG III (2009) emploient ce nom.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille est cosmopolite (bien que certaines espèces soient endémiques), mais est surtout bien représentée dans les régions tempérées et chaudes (pourtour méditerranéen) de l'hémisphère Nord[2]. Elle est particulièrement riche sur le pourtour méditerranéen et en Asie. Sous les tropiques, elle est limitée aux secteurs montagneux d'altitude (formant des coussinets, comme Silene acaulis). Elle comporte notamment la Sagine antarctique, l'une des deux plantes à fleurs présente en Antarctique[9].
-Elle comprend principalement des plantes herbacées, un grand nombre de plantes ornementales et autant d'adventices subcosmopolites (telles le mouron des oiseaux, la nielle des blés, de nombreuses Silene, Arenaria et Cerastium)[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille est cosmopolite (bien que certaines espèces soient endémiques), mais est surtout bien représentée dans les régions tempérées et chaudes (pourtour méditerranéen) de l'hémisphère Nord. Elle est particulièrement riche sur le pourtour méditerranéen et en Asie. Sous les tropiques, elle est limitée aux secteurs montagneux d'altitude (formant des coussinets, comme Silene acaulis). Elle comporte notamment la Sagine antarctique, l'une des deux plantes à fleurs présente en Antarctique.
+Elle comprend principalement des plantes herbacées, un grand nombre de plantes ornementales et autant d'adventices subcosmopolites (telles le mouron des oiseaux, la nielle des blés, de nombreuses Silene, Arenaria et Cerastium).
 </t>
         </is>
       </c>
@@ -609,16 +627,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Plantes herbacées ou suffrutescentes aux racines pivotantes ou rhizomateuses et fibreuses, très rarement tubéreuses
-Tiges parfois avec des épaississements secondaires d’anneaux concentriques (de xylème et de phloème), notamment au niveau des nœuds renflés desquels la tige se brise facilement d'où l'étymologie populaire souvent donnée : du grec caryo (noyau, nœud) et phullon (feuille)[11]. Plusieurs plantes de cette famille étaient préconisées dans le traitement des fractures, selon la théorie des signatures[12].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantes herbacées ou suffrutescentes aux racines pivotantes ou rhizomateuses et fibreuses, très rarement tubéreuses
+Tiges parfois avec des épaississements secondaires d’anneaux concentriques (de xylème et de phloème), notamment au niveau des nœuds renflés desquels la tige se brise facilement d'où l'étymologie populaire souvent donnée : du grec caryo (noyau, nœud) et phullon (feuille). Plusieurs plantes de cette famille étaient préconisées dans le traitement des fractures, selon la théorie des signatures.
 Feuilles simples
-sessiles formées, à la suite d'une évolution réductrice, d'un pétiole dilaté et aplati, faisant office de limbe : faux limbe à forme simple et entière (subulée, linéaire, spatulée, ovalaire ou suborbiculaire), à nervation pennée[13]
+sessiles formées, à la suite d'une évolution réductrice, d'un pétiole dilaté et aplati, faisant office de limbe : faux limbe à forme simple et entière (subulée, linéaire, spatulée, ovalaire ou suborbiculaire), à nervation pennée
 exceptionnellement des stipules  chez des Silenoideae ou des Paronychioideae chez qui elles sont scarieuses : souvent fasciculées ou verticillées dans ces taxons, elles sont soit linéaires (Spergularia, Spergula), soit obovales (Polycarpon)
-feuilles opposées (paire de feuilles reliées par une crête transversale aux nœuds), souvent décussées, parfois soudées à la base, plus rarement pseudo-verticillées ou alternes[14]
-Les parties aériennes (feuilles, tiges) et surtout souterraines (racines) contiennent des métabolites secondaires allélochimiques, les saponines, qui servent de défense des plantes contre les herbivores (insectes, escargots d'eau douce, têtards, petits poissons), notamment chez les saponaires et les silènes. Les propriétés ichtyotoxiques et moussantes des saponines, associée à leur forte dissolubilité dans l'eau, a permis, sans doute depuis la préhistoire, à certains peuples autochtones d'en faire des poisons utilisables pour la pêche (pêche à la nivrée ou pêche au poison en broyant certaines racines, créant ainsi un savon riches en saponines versé dans l'eau des rivières, et qui provoque l'asphyxie et la mort des poissons en endommageant la membrane de leurs branchies)[15],[16].
-Appareil reproducteur
-Préfloraison imbriquée simple ou tordue
+feuilles opposées (paire de feuilles reliées par une crête transversale aux nœuds), souvent décussées, parfois soudées à la base, plus rarement pseudo-verticillées ou alternes
+Les parties aériennes (feuilles, tiges) et surtout souterraines (racines) contiennent des métabolites secondaires allélochimiques, les saponines, qui servent de défense des plantes contre les herbivores (insectes, escargots d'eau douce, têtards, petits poissons), notamment chez les saponaires et les silènes. Les propriétés ichtyotoxiques et moussantes des saponines, associée à leur forte dissolubilité dans l'eau, a permis, sans doute depuis la préhistoire, à certains peuples autochtones d'en faire des poisons utilisables pour la pêche (pêche à la nivrée ou pêche au poison en broyant certaines racines, créant ainsi un savon riches en saponines versé dans l'eau des rivières, et qui provoque l'asphyxie et la mort des poissons en endommageant la membrane de leurs branchies),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Préfloraison imbriquée simple ou tordue
 Inflorescence déterminée : cyme bipare, souvent composée en panicule. Elle peut devenir dissymétrique au point de devenir unipare (avortement d'un rameau à chaque nœud, comme chez le Silènes) ou parfois réduite à une fleur terminale. La cyme peut se contracter, simulant alors plus ou moins un capitule accompagné de bractées scarieuses formant un petit involucre
 Fleur pentamère, parfois tétramère, munie de tépales souvent sépaloïdes
 Fleur généralement hermaphrodite (parfois polygames ou dioïques), protandre, actinomorphe, parfois munie d'un androgynophore (de) et d'un hypanthium urcéolé, cupuliforme ou discoïde
@@ -644,44 +702,46 @@
 Calice dialy- ou gamosépale (détermine le type de fruit) composé de 4-5 sépales, libres ou soudés
 si gamosépale : les sépales connés ont un onglet développé et une ligule (Silenoideae)
 si dialysépale : il y a un onglet court donc des pétales réduits ou nuls (Paronychioideae, Alsinoideae)
-Corolle dialypétale ((0-)4-5 pétales souvent onguiculés au limbe bifide ou lacinié et muni de deux petites expansions ligulaires à la jonction du limbe et de l'onglet). Le plus souvent les pétales véritables sont absents mais le néophyte peut observer des « pétales » constitués en fait d'un verticille de 4-5 étamines pétaloïdes[17]
+Corolle dialypétale ((0-)4-5 pétales souvent onguiculés au limbe bifide ou lacinié et muni de deux petites expansions ligulaires à la jonction du limbe et de l'onglet). Le plus souvent les pétales véritables sont absents mais le néophyte peut observer des « pétales » constitués en fait d'un verticille de 4-5 étamines pétaloïdes
 Androcée obdiplosténome, parfois réduit à 8 ou 5 étamines, anthères aux fentes de déhiscence longitudinale introrses. La pollinisation est entomogame, réalisée par des Diptères et des Lépidoptères venant récolter le nectar. La protandrie favorise la fécondation croisée
-Ovaire supère uniloculaire, à placentation centrale libre ou basale[18] de fleur hypogyne (périgyne dans le genre Scleranthus), à 5, 4, 3 ou 2 carpelles soudés, à 2-5 stigmates réduits ou linéaires, à styles libres rarement connés à la base et aussi nombreux que les carpelles, à ovules hémitropes à campylotropes généralement nombreux (parfois seulement 1), primitifs car bitégumentés et crassinucellés[10].
-Fruit, le plus souvent une capsule loculicide[19] (déhiscence par des clapets triangulaires ou se séparant en valves, en même nombre que les stigmates ou en nombre double) au péricarpe crustacé, scarieux ou papyracé
+Ovaire supère uniloculaire, à placentation centrale libre ou basale de fleur hypogyne (périgyne dans le genre Scleranthus), à 5, 4, 3 ou 2 carpelles soudés, à 2-5 stigmates réduits ou linéaires, à styles libres rarement connés à la base et aussi nombreux que les carpelles, à ovules hémitropes à campylotropes généralement nombreux (parfois seulement 1), primitifs car bitégumentés et crassinucellés.
+Fruit, le plus souvent une capsule loculicide (déhiscence par des clapets triangulaires ou se séparant en valves, en même nombre que les stigmates ou en nombre double) au péricarpe crustacé, scarieux ou papyracé
 s'ouvrant par des dents apicales chez les espèces à calice gamosépale généralement persistant
-s'ouvrant par des valves chez les espèces à calice dialysépale[10].
-La graine ne possède en principe pas d'albumen, mais un périsperme autour duquel s’enroule l’embryon[20]</t>
+s'ouvrant par des valves chez les espèces à calice dialysépale.
+La graine ne possède en principe pas d'albumen, mais un périsperme autour duquel s’enroule l’embryon</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Caryophyllaceae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Caryophyllaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres les plus importants sont Silene avec 700 espèces (dont une cinquantaine dans la flore française), Dianthus avec 300 espèces  (23 dans la flore française), Arenaria avec 200 espèces  (16 dans la flore française), Gypsophila, Minuartia et Stellaria avec 150 espèces (25 de Stellaria et 16 de Minuartia dans la flore française), Paronychia avec 110 espèces, Cerastium avec une centaine d'espèces (25 dans la flore française). La flore française est représentée par 32 genres et 210 à 220 espèces[2].
-Selon NCBI  (3 mai 2010)[21] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres les plus importants sont Silene avec 700 espèces (dont une cinquantaine dans la flore française), Dianthus avec 300 espèces  (23 dans la flore française), Arenaria avec 200 espèces  (16 dans la flore française), Gypsophila, Minuartia et Stellaria avec 150 espèces (25 de Stellaria et 16 de Minuartia dans la flore française), Paronychia avec 110 espèces, Cerastium avec une centaine d'espèces (25 dans la flore française). La flore française est représentée par 32 genres et 210 à 220 espèces.
+Selon NCBI  (3 mai 2010) :
 genre Acanthophyllum
 genre Agrostemma
 genre Allochrusa
@@ -747,7 +807,7 @@
 genre Velezia
 genre Viscaria
 genre Wilhelmsia
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[22] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 genre Acanthophyllum C.A.Mey.
 genre Achyronychia Torrey &amp; A. Gray
 genre Agrostemma L.
@@ -839,7 +899,7 @@
 genre Viscaria Rohl.
 genre Wilhelmsia Reichenbach
 genre Xerotia Oliv.
-Selon DELTA Angio           (3 mai 2010)[23] :
+Selon DELTA Angio           (3 mai 2010) :
 genre Acanthophyllum
 genre Achyronychia
 genre Agrostemma
@@ -928,7 +988,7 @@
 genre Velezia
 genre Wilhelmsia
 genre Xerotia
-Selon ITIS      (3 mai 2010)[24] :
+Selon ITIS      (3 mai 2010) :
 genre Achyronychia  Torr. &amp; Gray
 genre Agrostemma  L.
 genre Alsinidendron  Mann
@@ -976,34 +1036,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Caryophyllaceae</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Caryophyllaceae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Histoire et légendes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une légende, l'armée de Louis IX est victime d'une épidémie dite de peste lors du siège de Tunis à la huitième croisade en 1270. Les soldats y découvrent à cette occasion une liqueur tonique à base d'œillet qui est censée avoir apaisé leurs souffrances, rapportent la plante en France où elle est cultivée comme plante médicinale puis plante ornementale[25].
-La réputation d'aphrodisiaque de l'œillet fait qu'il est symbole de fiançailles et de mariage, illustrant les portraits médiévaux des couples. À l'inverse, signe de l'amour divin et symbole de virginité, il se retrouve sur de nombreuses représentations de la Vierge Marie du XVe au XVIIe siècle[26]. À cette époque, l'œillet disputait à la rose le titre de reine des fleurs[27].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une légende, l'armée de Louis IX est victime d'une épidémie dite de peste lors du siège de Tunis à la huitième croisade en 1270. Les soldats y découvrent à cette occasion une liqueur tonique à base d'œillet qui est censée avoir apaisé leurs souffrances, rapportent la plante en France où elle est cultivée comme plante médicinale puis plante ornementale.
+La réputation d'aphrodisiaque de l'œillet fait qu'il est symbole de fiançailles et de mariage, illustrant les portraits médiévaux des couples. À l'inverse, signe de l'amour divin et symbole de virginité, il se retrouve sur de nombreuses représentations de la Vierge Marie du XVe au XVIIe siècle. À cette époque, l'œillet disputait à la rose le titre de reine des fleurs.
 </t>
         </is>
       </c>
